--- a/validation/h0s0-calculation/h0s0-calculation-with-own-flash-routine.xlsx
+++ b/validation/h0s0-calculation/h0s0-calculation-with-own-flash-routine.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="13470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="13470" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GasComposition_FlashRoutine" sheetId="1" r:id="rId1"/>
+    <sheet name="FLASH" sheetId="1" r:id="rId1"/>
+    <sheet name="h0s0" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>FlashRoutine</t>
   </si>
@@ -213,12 +214,75 @@
   </si>
   <si>
     <t>Liquid phase</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Molar gas constant</t>
+  </si>
+  <si>
+    <t>Reference pressure</t>
+  </si>
+  <si>
+    <t>p_ref</t>
+  </si>
+  <si>
+    <t>J/(mol K)</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+  <si>
+    <t>s_molar</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>R * ln ((x'_i * p_0) / p_ref )</t>
+  </si>
+  <si>
+    <t>s_i,molar (T_0, p_ref)</t>
+  </si>
+  <si>
+    <t>s_i,molar (T_0,x'_i*p0)</t>
+  </si>
+  <si>
+    <t>Water needs correction:</t>
+  </si>
+  <si>
+    <t>calculated direct</t>
+  </si>
+  <si>
+    <t>calculated indirect</t>
+  </si>
+  <si>
+    <t>MIXTURE</t>
+  </si>
+  <si>
+    <t>s_mass</t>
+  </si>
+  <si>
+    <t>kJ/kg</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>s_mass (from Ebsilon)</t>
+  </si>
+  <si>
+    <t>delta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,12 +347,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -313,6 +395,1058 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>h0s0!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s_mass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>h0s0!$C$21:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>h0s0!$D$21:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.3942901713443119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4910744536227183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5523042213290301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8325916879972288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8674818695633144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8952434394823872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4535-472A-B8DC-8FD7DA000549}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>h0s0!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s_mass (from Ebsilon)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>h0s0!$C$21:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>h0s0!$E$21:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.6838544807649596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7806508473345302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.84190435929239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9149803247617196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1106945940089004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1847184192726798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4535-472A-B8DC-8FD7DA000549}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2081422720"/>
+        <c:axId val="2081420640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2081422720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2081420640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2081420640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2081422720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -595,19 +1729,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="18" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="18" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
@@ -615,7 +1749,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
@@ -631,7 +1765,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -644,7 +1778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -666,7 +1800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -678,11 +1812,11 @@
         <v>2.801348E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>0.75</v>
+        <v>0.75070000000000003</v>
       </c>
       <c r="E6" s="1">
         <f>D6*C6/SUMPRODUCT($C$6:$C$9,$D$6:$D$9)</f>
-        <v>0.74368234080032647</v>
+        <v>0.74426481816341739</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
@@ -692,7 +1826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -704,11 +1838,11 @@
         <v>3.1998800000000001E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.13719999999999999</v>
       </c>
       <c r="E7" s="1">
         <f>D7*C7/SUMPRODUCT($C$6:$C$9,$D$6:$D$9)</f>
-        <v>0.15856994314414388</v>
+        <v>0.15537524082758308</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
@@ -718,7 +1852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -730,25 +1864,25 @@
         <v>4.4009800000000002E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>0.03</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="E8" s="1">
         <f>D8*C8/SUMPRODUCT($C$6:$C$9,$D$6:$D$9)</f>
-        <v>4.6733659769731165E-2</v>
+        <v>4.8907228699578476E-2</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K8" s="1">
-        <f>IF(C26&gt;C22,D6/C38,D6)</f>
-        <v>0.78970720801741179</v>
+        <f>IF(C27&gt;C23,D6/C39,D6)</f>
+        <v>0.79104615101922093</v>
       </c>
       <c r="L8" s="1">
         <f>K8*C6/SUMPRODUCT($C$6:$C$9,$K$8:$K$11)</f>
-        <v>0.76831682437506077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.76928094093038235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -760,45 +1894,45 @@
         <v>1.8015268000000001E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>0.08</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="E9" s="1">
         <f>D9*C9/SUMPRODUCT($C$6:$C$9,$D$6:$D$9)</f>
-        <v>5.1014056285798477E-2</v>
+        <v>5.1452712309421042E-2</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="1">
-        <f>IF(C26&gt;C22,D7/C38,D7)</f>
-        <v>0.1474120121632502</v>
+        <f>IF(C27&gt;C23,D7/C39,D7)</f>
+        <v>0.14457377370432542</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ref="L9:L11" si="0">K9*C7/SUMPRODUCT($C$6:$C$9,$K$8:$K$11)</f>
-        <v>0.16382257379774678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1605976912304935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="1">
-        <f>IF(C26&gt;C22,D8/C38,D8)</f>
-        <v>3.1588288320696468E-2</v>
+        <f>IF(C27&gt;C23,D8/C39,D8)</f>
+        <v>3.3087583777812089E-2</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>4.8281712628893733E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.0551091485353819E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
         <f>SUMPRODUCT(C6:C9,D6:D9)</f>
-        <v>2.8251457439999999E-2</v>
+        <v>2.8255694643600001E-2</v>
       </c>
       <c r="D11" s="1">
         <f>SUM(D6:D9)</f>
@@ -812,15 +1946,15 @@
         <v>40</v>
       </c>
       <c r="K11" s="1">
-        <f>IF(C26&gt;C22,C40/C38,C40)</f>
+        <f>IF(C27&gt;C23,C41/C39,C41)</f>
         <v>3.1292491498641557E-2</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>1.9578889198298591E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.9570276353770257E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J13" s="1" t="s">
         <v>24</v>
       </c>
@@ -830,10 +1964,10 @@
       </c>
       <c r="L13" s="1">
         <f>SUM(L8:L11)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -841,7 +1975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -858,7 +1992,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
@@ -869,20 +2003,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K19" s="1">
-        <f>IF(C26&gt;C22,C37,0)</f>
-        <v>5.0280923884559875E-2</v>
+        <f>IF(C27&gt;C23,C38,0)</f>
+        <v>5.1003536225082483E-2</v>
       </c>
       <c r="L19" s="1">
         <f>K19*C9/SUMPRODUCT($C$6:$C$9,$K$8:$K$11)</f>
-        <v>3.1459452104241011E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.1897533598043072E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -896,201 +2030,579 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="5">
+        <f>C20*100000</f>
+        <v>101299.99999999999</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="1">
-        <f>[1]!PropsSI("P","T",C18,"Q",C24,B23)*0.00001</f>
+      <c r="C23" s="1">
+        <f>[1]!PropsSI("P","T",C18,"Q",C25,B24)*0.00001</f>
         <v>3.1699293888123897E-2</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="J23" s="4" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="J24" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J25" s="1" t="s">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K26" s="1">
         <f>1-K19</f>
-        <v>0.94971907611544015</v>
-      </c>
-      <c r="L25" s="1">
+        <v>0.94899646377491753</v>
+      </c>
+      <c r="L26" s="1">
         <f>1-L19</f>
-        <v>0.96854054789575894</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+        <v>0.96810246640195696</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="1">
-        <f>GasComposition_FlashRoutine!D9*GasComposition_FlashRoutine!C20</f>
-        <v>8.1039999999999987E-2</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C27" s="1">
+        <f>FLASH!D9*FLASH!C20</f>
+        <v>8.1749099999999991E-2</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J27" s="1" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="1">
-        <f>K19+K25</f>
+      <c r="K28" s="1">
+        <f>K19+K26</f>
         <v>1</v>
       </c>
-      <c r="L27" s="1">
-        <f>L19+L25</f>
+      <c r="L28" s="1">
+        <f>L19+L26</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>IF(C26&gt;C22,"Water condensates!","No condensation!")</f>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f>IF(C27&gt;C23,"Water condensates!","No condensation!")</f>
         <v>Water condensates!</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C36" s="1">
         <f>SUM($D$6:$D$8)</f>
-        <v>0.92</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="F35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="1">
-        <f>C35/(C20/C22-1)</f>
-        <v>2.9719076115440127E-2</v>
+        <v>0.91930000000000001</v>
       </c>
       <c r="D36" s="1"/>
       <c r="F36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1">
-        <f>D9-C36</f>
-        <v>5.0280923884559875E-2</v>
+        <f>IF(C27&gt;C23,C36/(C20/C23-1),D9)</f>
+        <v>2.9696463774917508E-2</v>
       </c>
       <c r="D37" s="1"/>
       <c r="F37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1">
-        <f>1-C37</f>
-        <v>0.94971907611544015</v>
+        <f>IF(C27&gt;C23,D9-C37,0)</f>
+        <v>5.1003536225082483E-2</v>
       </c>
       <c r="D38" s="1"/>
       <c r="F38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1">
+        <f>1-C38</f>
+        <v>0.94899646377491753</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="F39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="1">
-        <f>IF(C26&gt;C22,C36,D9)</f>
-        <v>2.9719076115440127E-2</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="F40" t="s">
+      <c r="C41" s="1">
+        <f>IF(C27&gt;C23,C37,D9)</f>
+        <v>2.9696463774917508E-2</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="F41" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A30">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No condensation!">
-      <formula>NOT(ISERROR(SEARCH("No condensation!",A29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No condensation!",A30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Water condensates!">
-      <formula>NOT(ISERROR(SEARCH("Water condensates!",A29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Water condensates!",A30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1">
+        <v>8.3145100000000003</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2">
+        <v>1.01325</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <f>C2*100000</f>
+        <v>101325</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",$C$3,A7)</f>
+        <v>191.48033977150558</v>
+      </c>
+      <c r="D7" s="1">
+        <f>$C$1*LN(FLASH!K8*FLASH!$C$21/h0s0!$C$3)</f>
+        <v>-1.9509642603873241</v>
+      </c>
+      <c r="E7" s="1">
+        <f>C7-D7</f>
+        <v>193.43130403189292</v>
+      </c>
+      <c r="F7" s="1">
+        <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",FLASH!K8*FLASH!$C$21,h0s0!A7)</f>
+        <v>193.43541443514809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",$C$3,A8)</f>
+        <v>205.02152841978645</v>
+      </c>
+      <c r="D8" s="1">
+        <f>$C$1*LN(FLASH!K9*FLASH!$C$21/h0s0!$C$3)</f>
+        <v>-16.082025999779407</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ref="E8:E11" si="0">C8-D8</f>
+        <v>221.10355441956585</v>
+      </c>
+      <c r="F8" s="1">
+        <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",FLASH!K9*FLASH!$C$21,h0s0!A8)</f>
+        <v>221.12159404569786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",$C$3,A9)</f>
+        <v>120.44641486534503</v>
+      </c>
+      <c r="D9" s="1">
+        <f>$C$1*LN(FLASH!K10*FLASH!$C$21/h0s0!$C$3)</f>
+        <v>-28.342867033255999</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>148.78928189860102</v>
+      </c>
+      <c r="F9" s="1">
+        <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",FLASH!K10*FLASH!$C$21,h0s0!A9)</f>
+        <v>148.88274931326472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1">
+        <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",$C$3,A10)</f>
+        <v>6.6151999620359581</v>
+      </c>
+      <c r="D10" s="1">
+        <f>$C$1*LN(FLASH!K11*FLASH!$C$21/h0s0!$C$3)</f>
+        <v>-28.806649727679833</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>35.421849689715792</v>
+      </c>
+      <c r="F10" s="1">
+        <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",(FLASH!K11-J10)*FLASH!$C$21,h0s0!A10)</f>
+        <v>154.1503153375366</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="6">
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1">
+        <f>IF(FLASH!C27&gt;FLASH!C23,[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",FLASH!K19*FLASH!$C$20*100000,h0s0!A11),0)</f>
+        <v>6.6156469047578144</v>
+      </c>
+      <c r="D11" s="1">
+        <f>IF(FLASH!C27&gt;FLASH!C23,$C$1*LN(FLASH!K19*FLASH!$C$21/h0s0!$C$3),0)</f>
+        <v>-24.744872012666274</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>31.360518917424088</v>
+      </c>
+      <c r="F11" s="1">
+        <f>IF(FLASH!C27&gt;FLASH!C23,[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",FLASH!K19*FLASH!$C$21,h0s0!A11),0)</f>
+        <v>6.6156469047578144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
+        <f>SUMPRODUCT(FLASH!D6:D8,h0s0!F7:F9)+SUMPRODUCT(FLASH!C37:C38,h0s0!F10:F11)</f>
+        <v>185.13990728984436</v>
+      </c>
+      <c r="D15" s="1">
+        <f>C15/FLASH!C11*0.001</f>
+        <v>6.5523042213290301</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C21" s="1">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6.3942901713443119</v>
+      </c>
+      <c r="E21" s="9">
+        <v>6.6838544807649596</v>
+      </c>
+      <c r="F21" s="9">
+        <f>D21-E21</f>
+        <v>-0.2895643094206477</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6.4910744536227183</v>
+      </c>
+      <c r="E22" s="9">
+        <v>6.7806508473345302</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" ref="F22:F26" si="1">D22-E22</f>
+        <v>-0.28957639371181187</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C23" s="1">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6.5523042213290301</v>
+      </c>
+      <c r="E23" s="9">
+        <v>6.84190435929239</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.28960013796335993</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C24" s="1">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6.8325916879972288</v>
+      </c>
+      <c r="E24" s="9">
+        <v>6.9149803247617196</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="1"/>
+        <v>-8.2388636764490819E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C25" s="1">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6.8674818695633144</v>
+      </c>
+      <c r="E25" s="9">
+        <v>7.1106945940089004</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.24321272444558595</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C26" s="1">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6.8952434394823872</v>
+      </c>
+      <c r="E26" s="9">
+        <v>7.1847184192726798</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.28947497979029269</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C15" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/validation/h0s0-calculation/h0s0-calculation-with-own-flash-routine.xlsx
+++ b/validation/h0s0-calculation/h0s0-calculation-with-own-flash-routine.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>FlashRoutine</t>
   </si>
@@ -249,9 +249,6 @@
     <t>s_i,molar (T_0,x'_i*p0)</t>
   </si>
   <si>
-    <t>Water needs correction:</t>
-  </si>
-  <si>
     <t>calculated direct</t>
   </si>
   <si>
@@ -274,6 +271,12 @@
   </si>
   <si>
     <t>delta</t>
+  </si>
+  <si>
+    <t>PropsSI("Smolar";"T";FLASH!$C$18;"Q";1;h0s0!A10)</t>
+  </si>
+  <si>
+    <t>WENN(FLASH!C27&gt;FLASH!C23;PropsSI("Smolar";"T";FLASH!$C$18;"Q";0;h0s0!A11);0)</t>
   </si>
 </sst>
 </file>
@@ -355,14 +358,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -520,22 +523,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.3942901713443119</c:v>
+                  <c:v>6.394290166277206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4910744536227183</c:v>
+                  <c:v>6.4910744539805538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5523042213290301</c:v>
+                  <c:v>6.552304209996306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8325916879972288</c:v>
+                  <c:v>6.6253406227126073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8674818695633144</c:v>
+                  <c:v>6.8209002008897883</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8952434394823872</c:v>
+                  <c:v>6.8852839599531306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1875,11 +1878,11 @@
       </c>
       <c r="K8" s="1">
         <f>IF(C27&gt;C23,D6/C39,D6)</f>
-        <v>0.79104615101922093</v>
+        <v>0.75070000000000003</v>
       </c>
       <c r="L8" s="1">
         <f>K8*C6/SUMPRODUCT($C$6:$C$9,$K$8:$K$11)</f>
-        <v>0.76928094093038235</v>
+        <v>0.74426481816341739</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1905,11 +1908,11 @@
       </c>
       <c r="K9" s="1">
         <f>IF(C27&gt;C23,D7/C39,D7)</f>
-        <v>0.14457377370432542</v>
+        <v>0.13719999999999999</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ref="L9:L11" si="0">K9*C7/SUMPRODUCT($C$6:$C$9,$K$8:$K$11)</f>
-        <v>0.1605976912304935</v>
+        <v>0.15537524082758308</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1918,11 +1921,11 @@
       </c>
       <c r="K10" s="1">
         <f>IF(C27&gt;C23,D8/C39,D8)</f>
-        <v>3.3087583777812089E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>5.0551091485353819E-2</v>
+        <v>4.8907228699578476E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1947,11 +1950,11 @@
       </c>
       <c r="K11" s="1">
         <f>IF(C27&gt;C23,C41/C39,C41)</f>
-        <v>3.1292491498641557E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>1.9570276353770257E-2</v>
+        <v>5.1452712309421042E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1983,7 +1986,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -1997,7 +2000,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1">
         <f>C17+273.15</f>
-        <v>298.14999999999998</v>
+        <v>323.14999999999998</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>15</v>
@@ -2009,11 +2012,11 @@
       </c>
       <c r="K19" s="1">
         <f>IF(C27&gt;C23,C38,0)</f>
-        <v>5.1003536225082483E-2</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
         <f>K19*C9/SUMPRODUCT($C$6:$C$9,$K$8:$K$11)</f>
-        <v>3.1897533598043072E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -2050,7 +2053,7 @@
       </c>
       <c r="C23" s="1">
         <f>[1]!PropsSI("P","T",C18,"Q",C25,B24)*0.00001</f>
-        <v>3.1699293888123897E-2</v>
+        <v>0.12351945832682559</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>23</v>
@@ -2087,11 +2090,11 @@
       </c>
       <c r="K26" s="1">
         <f>1-K19</f>
-        <v>0.94899646377491753</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1">
         <f>1-L19</f>
-        <v>0.96810246640195696</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -2136,7 +2139,7 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>IF(C27&gt;C23,"Water condensates!","No condensation!")</f>
-        <v>Water condensates!</v>
+        <v>No condensation!</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -2172,7 +2175,7 @@
       </c>
       <c r="C37" s="1">
         <f>IF(C27&gt;C23,C36/(C20/C23-1),D9)</f>
-        <v>2.9696463774917508E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="D37" s="1"/>
       <c r="F37" t="s">
@@ -2188,7 +2191,7 @@
       </c>
       <c r="C38" s="1">
         <f>IF(C27&gt;C23,D9-C37,0)</f>
-        <v>5.1003536225082483E-2</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1"/>
       <c r="F38" t="s">
@@ -2204,7 +2207,7 @@
       </c>
       <c r="C39" s="1">
         <f>1-C38</f>
-        <v>0.94899646377491753</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1"/>
       <c r="F39" t="s">
@@ -2220,7 +2223,7 @@
       </c>
       <c r="C41" s="1">
         <f>IF(C27&gt;C23,C37,D9)</f>
-        <v>2.9696463774917508E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="D41" s="1"/>
       <c r="F41" t="s">
@@ -2248,7 +2251,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2302,13 +2305,13 @@
       <c r="A5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>74</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -2338,19 +2341,19 @@
       </c>
       <c r="C7" s="1">
         <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",$C$3,A7)</f>
-        <v>191.48033977150558</v>
+        <v>193.82946854534879</v>
       </c>
       <c r="D7" s="1">
         <f>$C$1*LN(FLASH!K8*FLASH!$C$21/h0s0!$C$3)</f>
-        <v>-1.9509642603873241</v>
+        <v>-2.3862305770286647</v>
       </c>
       <c r="E7" s="1">
         <f>C7-D7</f>
-        <v>193.43130403189292</v>
+        <v>196.21569912237746</v>
       </c>
       <c r="F7" s="1">
         <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",FLASH!K8*FLASH!$C$21,h0s0!A7)</f>
-        <v>193.43541443514809</v>
+        <v>196.21975144559002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -2362,19 +2365,19 @@
       </c>
       <c r="C8" s="1">
         <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",$C$3,A8)</f>
-        <v>205.02152841978645</v>
+        <v>207.39585560196099</v>
       </c>
       <c r="D8" s="1">
         <f>$C$1*LN(FLASH!K9*FLASH!$C$21/h0s0!$C$3)</f>
-        <v>-16.082025999779407</v>
+        <v>-16.517292316420747</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ref="E8:E11" si="0">C8-D8</f>
-        <v>221.10355441956585</v>
+        <v>223.91314791838172</v>
       </c>
       <c r="F8" s="1">
         <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",FLASH!K9*FLASH!$C$21,h0s0!A8)</f>
-        <v>221.12159404569786</v>
+        <v>223.92811301194527</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -2386,19 +2389,19 @@
       </c>
       <c r="C9" s="1">
         <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",$C$3,A9)</f>
-        <v>120.44641486534503</v>
+        <v>123.50312119120474</v>
       </c>
       <c r="D9" s="1">
         <f>$C$1*LN(FLASH!K10*FLASH!$C$21/h0s0!$C$3)</f>
-        <v>-28.342867033255999</v>
+        <v>-28.778133349897338</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>148.78928189860102</v>
+        <v>152.28125454110207</v>
       </c>
       <c r="F9" s="1">
         <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",FLASH!K10*FLASH!$C$21,h0s0!A9)</f>
-        <v>148.88274931326472</v>
+        <v>152.35421182891258</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -2410,27 +2413,24 @@
       </c>
       <c r="C10" s="1">
         <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",$C$3,A10)</f>
-        <v>6.6151999620359581</v>
+        <v>12.678558351584103</v>
       </c>
       <c r="D10" s="1">
         <f>$C$1*LN(FLASH!K11*FLASH!$C$21/h0s0!$C$3)</f>
-        <v>-28.806649727679833</v>
+        <v>-20.929812252094198</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>35.421849689715792</v>
+        <v>33.608370603678303</v>
       </c>
       <c r="F10" s="1">
-        <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",(FLASH!K11-J10)*FLASH!$C$21,h0s0!A10)</f>
-        <v>154.1503153375366</v>
+        <f>[1]!PropsSI("Smolar","T",FLASH!$C$18,"Q",1,h0s0!A10)</f>
+        <v>145.47031400299247</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="6">
-        <f>0.0000001</f>
-        <v>9.9999999999999995E-8</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -2441,19 +2441,22 @@
       </c>
       <c r="C11" s="1">
         <f>IF(FLASH!C27&gt;FLASH!C23,[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",FLASH!K19*FLASH!$C$20*100000,h0s0!A11),0)</f>
-        <v>6.6156469047578144</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <f>IF(FLASH!C27&gt;FLASH!C23,$C$1*LN(FLASH!K19*FLASH!$C$21/h0s0!$C$3),0)</f>
-        <v>-24.744872012666274</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>31.360518917424088</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f>IF(FLASH!C27&gt;FLASH!C23,[1]!PropsSI("Smolar","T",FLASH!$C$18,"P",FLASH!K19*FLASH!$C$21,h0s0!A11),0)</f>
-        <v>6.6156469047578144</v>
+        <f>IF(FLASH!C27&gt;FLASH!C23,[1]!PropsSI("Smolar","T",FLASH!$C$18,"Q",0,h0s0!A11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -2463,7 +2466,7 @@
         <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -2473,35 +2476,35 @@
         <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
         <f>SUMPRODUCT(FLASH!D6:D8,h0s0!F7:F9)+SUMPRODUCT(FLASH!C37:C38,h0s0!F10:F11)</f>
-        <v>185.13990728984436</v>
+        <v>194.54848110691267</v>
       </c>
       <c r="D15" s="1">
         <f>C15/FLASH!C11*0.001</f>
-        <v>6.5523042213290301</v>
+        <v>6.8852839599531306</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.35">
@@ -2509,14 +2512,14 @@
         <v>10</v>
       </c>
       <c r="D21" s="1">
-        <v>6.3942901713443119</v>
-      </c>
-      <c r="E21" s="9">
+        <v>6.394290166277206</v>
+      </c>
+      <c r="E21" s="8">
         <v>6.6838544807649596</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <f>D21-E21</f>
-        <v>-0.2895643094206477</v>
+        <v>-0.28956431448775355</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.35">
@@ -2524,14 +2527,14 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>6.4910744536227183</v>
-      </c>
-      <c r="E22" s="9">
+        <v>6.4910744539805538</v>
+      </c>
+      <c r="E22" s="8">
         <v>6.7806508473345302</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <f t="shared" ref="F22:F26" si="1">D22-E22</f>
-        <v>-0.28957639371181187</v>
+        <v>-0.28957639335397634</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.35">
@@ -2539,14 +2542,14 @@
         <v>25</v>
       </c>
       <c r="D23" s="1">
-        <v>6.5523042213290301</v>
-      </c>
-      <c r="E23" s="9">
+        <v>6.552304209996306</v>
+      </c>
+      <c r="E23" s="8">
         <v>6.84190435929239</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <f t="shared" si="1"/>
-        <v>-0.28960013796335993</v>
+        <v>-0.28960014929608402</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.35">
@@ -2554,14 +2557,14 @@
         <v>30</v>
       </c>
       <c r="D24" s="1">
-        <v>6.8325916879972288</v>
-      </c>
-      <c r="E24" s="9">
+        <v>6.6253406227126073</v>
+      </c>
+      <c r="E24" s="8">
         <v>6.9149803247617196</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <f t="shared" si="1"/>
-        <v>-8.2388636764490819E-2</v>
+        <v>-0.28963970204911238</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.35">
@@ -2569,14 +2572,14 @@
         <v>40</v>
       </c>
       <c r="D25" s="1">
-        <v>6.8674818695633144</v>
-      </c>
-      <c r="E25" s="9">
+        <v>6.8209002008897883</v>
+      </c>
+      <c r="E25" s="8">
         <v>7.1106945940089004</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <f t="shared" si="1"/>
-        <v>-0.24321272444558595</v>
+        <v>-0.28979439311911204</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.35">
@@ -2584,14 +2587,14 @@
         <v>50</v>
       </c>
       <c r="D26" s="1">
-        <v>6.8952434394823872</v>
-      </c>
-      <c r="E26" s="9">
+        <v>6.8852839599531306</v>
+      </c>
+      <c r="E26" s="8">
         <v>7.1847184192726798</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <f t="shared" si="1"/>
-        <v>-0.28947497979029269</v>
+        <v>-0.29943445931954926</v>
       </c>
     </row>
   </sheetData>
